--- a/RatingUniversity/Files/28_stepen_vnedreniya_ikt_v_uchebniy_process.xlsx
+++ b/RatingUniversity/Files/28_stepen_vnedreniya_ikt_v_uchebniy_process.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dilechka\Desktop\last scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Repositories\Raiting\RatingUniversity\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="stepen_vnedreniya_ikt" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -323,27 +323,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -353,6 +332,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -635,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -651,149 +651,149 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
     </row>
     <row r="5" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:18" ht="219" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="12" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
     </row>
     <row r="8" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -852,24 +852,24 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="14"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="7"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
@@ -942,6 +942,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
@@ -954,14 +962,6 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="A3:R3"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
